--- a/W2SG_trained_results.xlsx
+++ b/W2SG_trained_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +592,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>32</v>
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>1000000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.785</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>gpt2-large</t>
+          <t>Qwen/Qwen-1_8B</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="b">
         <v>0</v>
@@ -823,12 +823,12 @@
         <v>1000000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.784</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>32</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>logconf</t>
+          <t>xent</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -885,68 +885,28 @@
       <c r="P4" t="n">
         <v>1000000</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000000</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>32</v>
@@ -961,7 +921,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>xent</t>
+          <t>logconf</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -972,7 +932,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Qwen/Qwen-1_8B</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -987,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -1042,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="b">
         <v>0</v>
@@ -1059,12 +1019,12 @@
         <v>1000000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.823</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>32</v>
@@ -1090,7 +1050,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Qwen/Qwen-1_8B</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1105,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -1123,7 +1083,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>gpt2-xl</t>
+          <t>Qwen/Qwen-1_8B</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -1160,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
@@ -1177,12 +1137,12 @@
         <v>1000000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.748</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>32</v>
@@ -1208,7 +1168,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Qwen/Qwen-1_8B</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1223,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -1255,12 +1215,12 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.833</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>32</v>
@@ -1286,7 +1246,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Qwen/Qwen-1_8B</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1301,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1319,7 +1279,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>gpt2-large</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1356,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -1373,12 +1333,12 @@
         <v>1000000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.727</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>32</v>
@@ -1404,7 +1364,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>gpt2-large</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1419,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1437,7 +1397,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>gpt2-large</t>
+          <t>Qwen/Qwen-7B</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1474,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
@@ -1491,753 +1451,7 @@
         <v>1000000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.718</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>logconf</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>gpt2-large</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>gpt2-large</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.607</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>gpt2-large</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
-        <v>0.738</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>32</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>logconf</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>32</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.593</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>gpt2-large</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>32</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.729</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>32</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="n">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>32</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.728</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" t="n">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>logconf</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>gpt2-xl</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>gpt2-large</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>32</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>sciq</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>xent</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="Z16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>cosine_anneal</t>
-        </is>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.628</v>
+        <v>0.891</v>
       </c>
     </row>
   </sheetData>
